--- a/predict/2023/saved/week12.xlsx
+++ b/predict/2023/saved/week12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="361">
   <si>
     <t>Index</t>
   </si>
@@ -67,723 +67,732 @@
     <t>32.3</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Bowling Green</t>
+  </si>
+  <si>
+    <t>BGSU</t>
+  </si>
+  <si>
+    <t>67.7</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>W Michigan</t>
+  </si>
+  <si>
+    <t>WMU</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Northwestern</t>
+  </si>
+  <si>
+    <t>NU</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Akron</t>
+  </si>
+  <si>
+    <t>AKR</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>E Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [E Illinois], Calculate() - [DIVISION 1 FBS] team playing [?] team, Akron wins</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2023-11-15</t>
+  </si>
+  <si>
+    <t>C Michigan</t>
+  </si>
+  <si>
+    <t>CMU</t>
+  </si>
+  <si>
+    <t>54.3</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OHIO</t>
+  </si>
+  <si>
+    <t>45.7</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>Miami OH</t>
+  </si>
+  <si>
+    <t>M-OH</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2023-11-16</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Pitt</t>
+  </si>
+  <si>
+    <t>PITT</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>South Florida</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>UTSA</t>
+  </si>
+  <si>
+    <t>83.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>COLO</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WASH</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2023-11-18</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>77.4</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TENN</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MINN</t>
+  </si>
+  <si>
+    <t>29.7</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>83.5</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>Bowling Green</t>
-  </si>
-  <si>
-    <t>BGSU</t>
-  </si>
-  <si>
-    <t>67.7</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>W Michigan</t>
-  </si>
-  <si>
-    <t>WMU</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Northwestern</t>
-  </si>
-  <si>
-    <t>NU</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t>North Alabama</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [North Alabama], Calculate() - [?] team playing [DIVISION 1 FBS] team, Florida wins</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>ORE</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>47.5</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>ARIZ</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TEX</t>
+  </si>
+  <si>
+    <t>74.6</t>
+  </si>
+  <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>ISU</t>
+  </si>
+  <si>
+    <t>25.4</t>
+  </si>
+  <si>
+    <t>Chattanooga</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Chattanooga], Calculate() - [?] team playing [DIVISION 1 FBS] team, Alabama wins</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MIZ</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>LOU</t>
+  </si>
+  <si>
+    <t>39.4</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>Rutgers</t>
+  </si>
+  <si>
+    <t>RUTG</t>
+  </si>
+  <si>
+    <t>Penn State</t>
+  </si>
+  <si>
+    <t>PSU</t>
+  </si>
+  <si>
+    <t>UL Monroe</t>
+  </si>
+  <si>
+    <t>ULM</t>
+  </si>
+  <si>
+    <t>Ole Miss</t>
+  </si>
+  <si>
+    <t>MISS</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OU</t>
+  </si>
+  <si>
+    <t>BYU</t>
+  </si>
+  <si>
+    <t>Georgia St</t>
+  </si>
+  <si>
+    <t>GAST</t>
+  </si>
+  <si>
+    <t>LSU</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>ILL</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UTAH</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>UNC</t>
+  </si>
+  <si>
+    <t>Clemson</t>
+  </si>
+  <si>
+    <t>CLEM</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>26.2</t>
+  </si>
+  <si>
+    <t>73.8</t>
+  </si>
+  <si>
+    <t>88.6</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>HOU</t>
+  </si>
+  <si>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Tulane</t>
+  </si>
+  <si>
+    <t>TULN</t>
+  </si>
+  <si>
+    <t>12.6</t>
+  </si>
+  <si>
+    <t>87.4</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Coastal Car</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>ARMY</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IU</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Akron</t>
-  </si>
-  <si>
-    <t>AKR</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>E Illinois</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [E Illinois], Calculate() - [DIVISION 1 FBS] team playing [?] team, Akron wins</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2023-11-15</t>
-  </si>
-  <si>
-    <t>C Michigan</t>
-  </si>
-  <si>
-    <t>CMU</t>
-  </si>
-  <si>
-    <t>54.3</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OHIO</t>
-  </si>
-  <si>
-    <t>45.7</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>BUFF</t>
-  </si>
-  <si>
-    <t>Miami OH</t>
-  </si>
-  <si>
-    <t>M-OH</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2023-11-16</t>
-  </si>
-  <si>
-    <t>Boston College</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>Pitt</t>
-  </si>
-  <si>
-    <t>PITT</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2023-11-17</t>
-  </si>
-  <si>
-    <t>South Florida</t>
-  </si>
-  <si>
-    <t>USF</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>UTSA</t>
-  </si>
-  <si>
-    <t>83.0</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>COLO</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WASH</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2023-11-18</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>77.4</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TENN</t>
-  </si>
-  <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MINN</t>
-  </si>
-  <si>
-    <t>29.7</t>
-  </si>
-  <si>
-    <t>70.3</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MICH</t>
-  </si>
-  <si>
-    <t>83.5</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>16.5</t>
-  </si>
-  <si>
-    <t>North Alabama</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [North Alabama], Calculate() - [?] team playing [DIVISION 1 FBS] team, Florida wins</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>ORE</t>
+    <t>Southern Miss</t>
+  </si>
+  <si>
+    <t>USM</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Purdue</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>81.6</t>
+  </si>
+  <si>
+    <t>Abilene Chrstn</t>
+  </si>
+  <si>
+    <t>Texas A&amp;M</t>
+  </si>
+  <si>
+    <t>TA&amp;M</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Abilene Chrstn], Calculate() - [?] team playing [DIVISION 1 FBS] team, Texas A&amp;M wins</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Sacred Heart</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
+    <t>CONN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Sacred Heart], Calculate() - [?] team playing [DIVISION 1 FBS] team, UConn wins</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>East Carolina</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>Navy</t>
+  </si>
+  <si>
+    <t>NAVY</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>36.9</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>63.1</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>LIB</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Jackson St</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [Jackson St], Calculate() - [DIVISION 1 FBS] team playing [?] team, Louisiana wins</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>UTEP</t>
+  </si>
+  <si>
+    <t>19.4</t>
+  </si>
+  <si>
+    <t>MTSU</t>
+  </si>
+  <si>
+    <t>80.6</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>RICE</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>CLT</t>
+  </si>
+  <si>
+    <t>Appalachian St</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>8.6</t>
+  </si>
+  <si>
+    <t>James Madison</t>
+  </si>
+  <si>
+    <t>JMU</t>
+  </si>
+  <si>
+    <t>91.4</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>Ball State</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HAW</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WYO</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>CIN</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>WVU</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>DUKE</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>UVA</t>
   </si>
   <si>
     <t>47</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>47.5</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>ARIZ</t>
-  </si>
-  <si>
-    <t>52.5</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TEX</t>
-  </si>
-  <si>
-    <t>74.6</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>ISU</t>
-  </si>
-  <si>
-    <t>25.4</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Chattanooga</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>ALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Chattanooga], Calculate() - [?] team playing [DIVISION 1 FBS] team, Alabama wins</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
-    <t>MISS</t>
-  </si>
-  <si>
-    <t>88.6</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Louisville</t>
-  </si>
-  <si>
-    <t>LOU</t>
-  </si>
-  <si>
-    <t>39.4</t>
-  </si>
-  <si>
-    <t>Miami</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>60.6</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Rutgers</t>
-  </si>
-  <si>
-    <t>RUTG</t>
-  </si>
-  <si>
-    <t>Penn State</t>
-  </si>
-  <si>
-    <t>PSU</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>UL Monroe</t>
-  </si>
-  <si>
-    <t>ULM</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OU</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>BYU</t>
-  </si>
-  <si>
-    <t>Georgia St</t>
-  </si>
-  <si>
-    <t>GAST</t>
-  </si>
-  <si>
-    <t>LSU</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>ILL</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Wake Forest</t>
-  </si>
-  <si>
-    <t>WAKE</t>
-  </si>
-  <si>
-    <t>Notre Dame</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>UNC</t>
-  </si>
-  <si>
-    <t>Clemson</t>
-  </si>
-  <si>
-    <t>CLEM</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KU</t>
-  </si>
-  <si>
-    <t>26.2</t>
-  </si>
-  <si>
-    <t>73.8</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>HOU</t>
-  </si>
-  <si>
-    <t>Tulane</t>
-  </si>
-  <si>
-    <t>TULN</t>
-  </si>
-  <si>
-    <t>12.6</t>
-  </si>
-  <si>
-    <t>87.4</t>
-  </si>
-  <si>
-    <t>Coastal Car</t>
-  </si>
-  <si>
-    <t>CCU</t>
-  </si>
-  <si>
-    <t>Army</t>
-  </si>
-  <si>
-    <t>ARMY</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IU</t>
-  </si>
-  <si>
-    <t>Southern Miss</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>Purdue</t>
-  </si>
-  <si>
-    <t>PUR</t>
-  </si>
-  <si>
-    <t>18.4</t>
-  </si>
-  <si>
-    <t>81.6</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Abilene Chrstn</t>
-  </si>
-  <si>
-    <t>Texas A&amp;M</t>
-  </si>
-  <si>
-    <t>TA&amp;M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Abilene Chrstn], Calculate() - [?] team playing [DIVISION 1 FBS] team, Texas A&amp;M wins</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Sacred Heart</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
-    <t>CONN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the first team [Sacred Heart], Calculate() - [?] team playing [DIVISION 1 FBS] team, UConn wins</t>
-  </si>
-  <si>
-    <t>East Carolina</t>
-  </si>
-  <si>
-    <t>ECU</t>
-  </si>
-  <si>
-    <t>Navy</t>
-  </si>
-  <si>
-    <t>NAVY</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>SMU</t>
-  </si>
-  <si>
-    <t>36.9</t>
-  </si>
-  <si>
-    <t>Memphis</t>
-  </si>
-  <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>63.1</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MASS</t>
-  </si>
-  <si>
-    <t>Liberty</t>
-  </si>
-  <si>
-    <t>LIB</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Jackson St</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> findTeams() - Could not find stats for the second team [Jackson St], Calculate() - [DIVISION 1 FBS] team playing [?] team, Louisiana wins</t>
-  </si>
-  <si>
-    <t>UTEP</t>
-  </si>
-  <si>
-    <t>19.4</t>
-  </si>
-  <si>
-    <t>MTSU</t>
-  </si>
-  <si>
-    <t>80.6</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>RICE</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>CLT</t>
-  </si>
-  <si>
-    <t>Appalachian St</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>8.6</t>
-  </si>
-  <si>
-    <t>James Madison</t>
-  </si>
-  <si>
-    <t>JMU</t>
-  </si>
-  <si>
-    <t>91.4</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Kent State</t>
-  </si>
-  <si>
-    <t>KENT</t>
-  </si>
-  <si>
-    <t>Ball State</t>
-  </si>
-  <si>
-    <t>BALL</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HAW</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WYO</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Cincinnati</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>WVU</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Duke</t>
-  </si>
-  <si>
-    <t>DUKE</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>UVA</t>
-  </si>
-  <si>
     <t>North Texas</t>
   </si>
   <si>
@@ -833,9 +842,6 @@
   </si>
   <si>
     <t>85.1</t>
-  </si>
-  <si>
-    <t>50</t>
   </si>
   <si>
     <t>Nevada</t>
@@ -1518,7 +1524,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>29.997</v>
@@ -1638,27 +1644,27 @@
         <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>55</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>6.397</v>
@@ -1673,129 +1679,129 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>65</v>
       </c>
       <c r="G8">
         <v>13.097</v>
       </c>
       <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
       </c>
       <c r="G9">
         <v>-7.403</v>
       </c>
       <c r="H9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s">
         <v>74</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="J9" t="s">
-        <v>76</v>
-      </c>
       <c r="K9" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
       </c>
       <c r="G10">
         <v>-9.803000000000001</v>
       </c>
       <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
         <v>83</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>84</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>85</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1810,7 +1816,7 @@
         <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s">
         <v>42</v>
@@ -1818,10 +1824,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C12" t="s">
         <v>91</v>
@@ -1833,33 +1839,33 @@
         <v>93</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="G12">
         <v>-13.403</v>
       </c>
       <c r="H12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
@@ -1871,10 +1877,10 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
         <v>33</v>
@@ -1883,21 +1889,21 @@
         <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" t="s">
-        <v>75</v>
       </c>
       <c r="E14" t="s">
         <v>25</v>
@@ -1909,71 +1915,71 @@
         <v>56.997</v>
       </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
         <v>106</v>
       </c>
       <c r="F15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G15">
         <v>1.597</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="G16">
         <v>-8.403</v>
@@ -1988,18 +1994,18 @@
         <v>117</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
         <v>118</v>
-      </c>
-      <c r="B17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" t="s">
-        <v>119</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
@@ -2011,10 +2017,10 @@
         <v>34</v>
       </c>
       <c r="H17" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" t="s">
         <v>120</v>
-      </c>
-      <c r="I17" t="s">
-        <v>121</v>
       </c>
       <c r="J17" t="s">
         <v>33</v>
@@ -2023,126 +2029,126 @@
         <v>34</v>
       </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18">
+        <v>23.797</v>
+      </c>
+      <c r="H18" t="s">
         <v>123</v>
       </c>
-      <c r="F18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18">
-        <v>16.097</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>124</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
         <v>125</v>
-      </c>
-      <c r="J18" t="s">
-        <v>126</v>
-      </c>
-      <c r="K18" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>129</v>
-      </c>
-      <c r="E19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" t="s">
-        <v>68</v>
       </c>
       <c r="G19">
         <v>3.497</v>
       </c>
       <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
         <v>131</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>132</v>
       </c>
-      <c r="J19" t="s">
-        <v>133</v>
-      </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>26.997</v>
       </c>
       <c r="H20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -2154,94 +2160,94 @@
         <v>48.697</v>
       </c>
       <c r="H21" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
       </c>
       <c r="K21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
         <v>143</v>
-      </c>
-      <c r="D22" t="s">
-        <v>144</v>
       </c>
       <c r="E22" t="s">
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="G22">
         <v>-13.703</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="G23">
         <v>39.797</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
         <v>150</v>
@@ -2253,7 +2259,7 @@
         <v>117</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>8.297000000000001</v>
@@ -2265,18 +2271,18 @@
         <v>153</v>
       </c>
       <c r="J24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
         <v>154</v>
@@ -2288,36 +2294,36 @@
         <v>25</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G25">
         <v>23.797</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>156</v>
       </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>157</v>
-      </c>
-      <c r="D26" t="s">
-        <v>158</v>
       </c>
       <c r="E26" t="s">
         <v>25</v>
@@ -2329,59 +2335,59 @@
         <v>41.697</v>
       </c>
       <c r="H26" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" t="s">
         <v>159</v>
-      </c>
-      <c r="I26" t="s">
-        <v>160</v>
       </c>
       <c r="J26" t="s">
         <v>28</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" t="s">
         <v>162</v>
-      </c>
-      <c r="D27" t="s">
-        <v>163</v>
       </c>
       <c r="E27" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>20.197</v>
       </c>
       <c r="H27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I27" t="s">
         <v>164</v>
-      </c>
-      <c r="I27" t="s">
-        <v>165</v>
       </c>
       <c r="J27" t="s">
         <v>28</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>166</v>
@@ -2393,7 +2399,7 @@
         <v>168</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="G28">
         <v>7.897</v>
@@ -2408,27 +2414,27 @@
         <v>169</v>
       </c>
       <c r="K28" t="s">
-        <v>127</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" t="s">
         <v>170</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>143</v>
-      </c>
-      <c r="D29" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" t="s">
-        <v>126</v>
-      </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="G29">
         <v>-15.803</v>
@@ -2440,74 +2446,74 @@
         <v>172</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F30" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G30">
         <v>14.897</v>
       </c>
       <c r="H30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E31" t="s">
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G31">
         <v>6.397</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
@@ -2518,10 +2524,10 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>91</v>
@@ -2533,36 +2539,36 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="G32">
         <v>-27.403</v>
       </c>
       <c r="H32" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I32" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J32" t="s">
         <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
         <v>25</v>
@@ -2571,39 +2577,39 @@
         <v>34</v>
       </c>
       <c r="G33">
-        <v>39.697</v>
+        <v>47.397</v>
       </c>
       <c r="H33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" t="s">
         <v>124</v>
-      </c>
-      <c r="I33" t="s">
-        <v>125</v>
       </c>
       <c r="J33" t="s">
         <v>28</v>
       </c>
       <c r="K33" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="G34">
         <v>12.197</v>
@@ -2615,21 +2621,21 @@
         <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E35" t="s">
         <v>34</v>
@@ -2641,10 +2647,10 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="J35" t="s">
         <v>33</v>
@@ -2653,18 +2659,18 @@
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E36" t="s">
         <v>34</v>
@@ -2676,10 +2682,10 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="J36" t="s">
         <v>33</v>
@@ -2688,126 +2694,126 @@
         <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E37" t="s">
         <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G37">
         <v>8.597</v>
       </c>
       <c r="H37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="I37" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K37" t="s">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D38" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G38">
         <v>4.397</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="I38" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="J38" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K38" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E39" t="s">
         <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>34.797</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="I39" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J39" t="s">
         <v>28</v>
       </c>
       <c r="K39" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E40" t="s">
         <v>33</v>
@@ -2819,7 +2825,7 @@
         <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="J40" t="s">
         <v>34</v>
@@ -2828,24 +2834,24 @@
         <v>34</v>
       </c>
       <c r="L40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D41" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F41" t="s">
         <v>17</v>
@@ -2854,68 +2860,68 @@
         <v>11.497</v>
       </c>
       <c r="H41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I41" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J41" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K41" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="F42" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="G42">
         <v>-11.503</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="J42" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K42" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
@@ -2924,316 +2930,316 @@
         <v>17.097</v>
       </c>
       <c r="H43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J43" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K43" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>27.697</v>
       </c>
       <c r="H44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I44" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="J44" t="s">
         <v>28</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D45" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E45" t="s">
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="G45">
         <v>25.297</v>
       </c>
       <c r="H45" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J45" t="s">
         <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E46" t="s">
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46">
         <v>24.697</v>
       </c>
       <c r="H46" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I46" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J46" t="s">
         <v>28</v>
       </c>
       <c r="K46" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E47" t="s">
         <v>20</v>
       </c>
       <c r="F47" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G47">
         <v>-6.403</v>
       </c>
       <c r="H47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I47" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
       </c>
       <c r="K47" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E48" t="s">
         <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G48">
         <v>2.297</v>
       </c>
       <c r="H48" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J48" t="s">
         <v>41</v>
       </c>
       <c r="K48" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>18.197</v>
       </c>
       <c r="H49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J49" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F50" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="G50">
         <v>14.097</v>
       </c>
       <c r="H50" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I50" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J50" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G51">
         <v>27.397</v>
       </c>
       <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51" t="s">
         <v>70</v>
-      </c>
-      <c r="I51" t="s">
-        <v>71</v>
       </c>
       <c r="J51" t="s">
         <v>28</v>
       </c>
       <c r="K51" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
         <v>25</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G52">
         <v>32.297</v>
@@ -3248,109 +3254,109 @@
         <v>28</v>
       </c>
       <c r="K52" t="s">
-        <v>29</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G53">
         <v>9.597</v>
       </c>
       <c r="H53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I53" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J53" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K53" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F54" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="G54">
         <v>-11.003</v>
       </c>
       <c r="H54" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="I54" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K54" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="G55">
         <v>19.597</v>
       </c>
       <c r="H55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J55" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K55" t="s">
         <v>215</v>
@@ -3358,191 +3364,191 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D56" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="G56">
         <v>20.997</v>
       </c>
       <c r="H56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J56" t="s">
         <v>28</v>
       </c>
       <c r="K56" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="G57">
         <v>10.197</v>
       </c>
       <c r="H57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K57" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E58" t="s">
         <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>31.997</v>
       </c>
       <c r="H58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J58" t="s">
         <v>28</v>
       </c>
       <c r="K58" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E59" t="s">
         <v>117</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G59">
         <v>8.497</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K59" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D60" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G60">
         <v>23.797</v>
       </c>
       <c r="H60" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="I60" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J60" t="s">
         <v>28</v>
       </c>
       <c r="K60" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E61" t="s">
         <v>25</v>
@@ -3554,173 +3560,173 @@
         <v>54.297</v>
       </c>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J61" t="s">
         <v>28</v>
       </c>
       <c r="K61" t="s">
-        <v>142</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D62" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E62" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G62">
         <v>-4.103</v>
       </c>
       <c r="H62" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I62" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J62" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K62" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D63" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F63" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="G63">
         <v>-15.003</v>
       </c>
       <c r="H63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I63" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K63" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F64" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="G64">
         <v>-1.803</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I64" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J64" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K64" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D65" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G65">
         <v>7.497</v>
       </c>
       <c r="H65" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I65" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K65" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D66" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E66" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F66" t="s">
         <v>47</v>
@@ -3729,30 +3735,30 @@
         <v>15.597</v>
       </c>
       <c r="H66" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I66" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J66" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D67" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E67" t="s">
         <v>25</v>
@@ -3764,86 +3770,86 @@
         <v>54.897</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s">
         <v>28</v>
       </c>
       <c r="K67" t="s">
-        <v>104</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E68" t="s">
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G68">
         <v>22.297</v>
       </c>
       <c r="H68" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="I68" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J68" t="s">
         <v>28</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E69" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F69" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G69">
         <v>17.397</v>
       </c>
       <c r="H69" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I69" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J69" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K69" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
